--- a/course.xlsx
+++ b/course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1CFB7-5258-4C98-9720-FA6BE6A90DFE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9881DED5-697C-4414-BD15-A25920390112}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{B087C2F5-5867-4A0B-97F9-4D67FD1AE46E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Course Code</t>
   </si>
@@ -45,27 +45,12 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Schedule (day of week)</t>
-  </si>
-  <si>
-    <t>CS487</t>
-  </si>
-  <si>
     <t>2017 - 2018</t>
   </si>
   <si>
-    <t>Software Engineering Capstone I</t>
-  </si>
-  <si>
-    <t>CS429</t>
-  </si>
-  <si>
     <t>Academic Year</t>
   </si>
   <si>
-    <t>Introduction to Big Data Analytics</t>
-  </si>
-  <si>
     <t>CS161</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>TCH001</t>
   </si>
   <si>
-    <t>Maxism and Leninxism</t>
-  </si>
-  <si>
     <t>Nguyen Ngoc Thu</t>
   </si>
   <si>
@@ -138,12 +120,6 @@
     <t>Dinh Ba Tien</t>
   </si>
   <si>
-    <t>Lam Quang Vu</t>
-  </si>
-  <si>
-    <t>Le Thi Nhan</t>
-  </si>
-  <si>
     <t>Mon, Wed</t>
   </si>
   <si>
@@ -156,10 +132,37 @@
     <t>Wed, Sat</t>
   </si>
   <si>
-    <t>Tue, Thu</t>
-  </si>
-  <si>
     <t>Wed, Fri</t>
+  </si>
+  <si>
+    <t>Marxism and Leninism</t>
+  </si>
+  <si>
+    <t>Schedule (Day of Week)</t>
+  </si>
+  <si>
+    <t>Start Hour</t>
+  </si>
+  <si>
+    <t>End Hour</t>
+  </si>
+  <si>
+    <t>7h30, 7h30</t>
+  </si>
+  <si>
+    <t>7h30, 9h30</t>
+  </si>
+  <si>
+    <t>9h30, 11h30</t>
+  </si>
+  <si>
+    <t>9h30, 9h30</t>
+  </si>
+  <si>
+    <t>9h30, 7h30</t>
+  </si>
+  <si>
+    <t>11h30, 9h30</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -198,9 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,34 +523,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89B3285-BA40-44E3-8AB4-27A4547855D5}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="8" width="13.21875" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
@@ -551,304 +562,300 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42983</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43057</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42983</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43057</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42983</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43057</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42983</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43057</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43108</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43285</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43108</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43285</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42983</v>
-      </c>
-      <c r="H2" s="1">
-        <v>43057</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43108</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43285</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1">
-        <v>42983</v>
-      </c>
-      <c r="H3" s="1">
-        <v>43057</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="1">
-        <v>42983</v>
-      </c>
-      <c r="H4" s="1">
-        <v>43057</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1">
-        <v>43108</v>
-      </c>
-      <c r="H5" s="1">
-        <v>43285</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1">
-        <v>42983</v>
-      </c>
-      <c r="H6" s="1">
-        <v>43057</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1">
-        <v>43108</v>
-      </c>
-      <c r="H7" s="1">
-        <v>43285</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1">
-        <v>42983</v>
-      </c>
-      <c r="H8" s="1">
-        <v>43057</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>43108</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>43285</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1">
-        <v>42983</v>
-      </c>
-      <c r="H10" s="1">
-        <v>43057</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1">
-        <v>43108</v>
-      </c>
-      <c r="H11" s="1">
-        <v>43285</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
